--- a/InputData/land/BLACE/BAU LULUCF Anthro CO2 Emis.xlsx
+++ b/InputData/land/BLACE/BAU LULUCF Anthro CO2 Emis.xlsx
@@ -1,27 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29520" windowHeight="14360"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17800" windowHeight="14140"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
     <sheet name="BLACE" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Year</t>
   </si>
@@ -65,9 +70,6 @@
     <t>10^12 g</t>
   </si>
   <si>
-    <t>Table 4</t>
-  </si>
-  <si>
     <t>kt CO2</t>
   </si>
   <si>
@@ -80,9 +82,6 @@
     <t xml:space="preserve">Quantifying the biophysical climate change mitigation potential of Canada’s forest sector by Smythe et al. </t>
   </si>
   <si>
-    <t xml:space="preserve">IPCC Inventory Report </t>
-  </si>
-  <si>
     <t>2010-2015 LULUCF Emissions</t>
   </si>
   <si>
@@ -129,6 +128,15 @@
   </si>
   <si>
     <t>g CO2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Note: Data in table is compiled from IPCC inventory reports Table 4 from years 2010-2015 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canada 2017 NIR </t>
+  </si>
+  <si>
+    <t>CRF Table 4</t>
   </si>
 </sst>
 </file>
@@ -392,6 +400,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -472,6 +483,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -507,6 +535,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -685,120 +730,122 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="11.453125" customWidth="1"/>
-    <col min="2" max="2" width="109.90625" customWidth="1"/>
+    <col min="1" max="1" width="11.5" customWidth="1"/>
+    <col min="2" max="2" width="109.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="B4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="B5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="B6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2">
       <c r="B8" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="B9" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="B10" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B10" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B11" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2">
       <c r="B12" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="B18" s="16" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B18" s="16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" ht="42">
       <c r="B19" s="16" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2">
       <c r="A21" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -814,29 +861,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="36.453125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="12.90625" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.90625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.453125" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.453125" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.90625" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.81640625" style="6"/>
+    <col min="1" max="1" width="36.5" style="6" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8">
       <c r="A1" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="B2" s="1">
         <v>2010</v>
       </c>
@@ -859,9 +908,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8">
       <c r="A3" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="9">
         <v>-29287.008104463519</v>
@@ -885,9 +934,9 @@
         <v>-19000</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8">
       <c r="A4" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="9">
         <v>30.787701999999999</v>
@@ -908,9 +957,9 @@
         <v>39.983035000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8">
       <c r="A5" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="9">
         <v>1.1131880000000001</v>
@@ -931,7 +980,7 @@
         <v>1.3533520000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" s="11" customFormat="1">
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
@@ -939,9 +988,9 @@
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B7" s="6">
         <f t="shared" ref="B7:G7" si="0">B3*10^9</f>
@@ -972,10 +1021,10 @@
         <v>-19000000000000</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8">
       <c r="A9" s="6" t="s">
         <v>7</v>
       </c>
@@ -986,7 +1035,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8">
       <c r="B10" s="6" t="s">
         <v>9</v>
       </c>
@@ -994,12 +1043,17 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8">
       <c r="B11" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="6" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1018,17 +1072,19 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AK2"/>
+  <dimension ref="A1:AK3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.6328125" customWidth="1"/>
-    <col min="2" max="17" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="2" max="17" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:37">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1141,7 +1197,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:37">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1289,6 +1345,13 @@
         <f t="shared" si="0"/>
         <v>-19000000000000</v>
       </c>
+    </row>
+    <row r="3" spans="1:37">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
